--- a/reportes/RI10.10.2.253.xlsx
+++ b/reportes/RI10.10.2.253.xlsx
@@ -31,10 +31,10 @@
     <t>No. Expediente Clínico</t>
   </si>
   <si>
-    <t>CANTÉ   MORALES  KEILY  ABIGAIL</t>
-  </si>
-  <si>
-    <t>2010-92643/201761711</t>
+    <t>SECAIDA  MORALES  EYMY  SORAYDA</t>
+  </si>
+  <si>
+    <t>8280/201761661</t>
   </si>
   <si>
     <t>Fecha de Nacimiento ( Dia Mes Año)</t>
@@ -49,10 +49,10 @@
     <t>Sexo M  (   )   F  (    )</t>
   </si>
   <si>
-    <t>1994-10-04</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>2001-02-22</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>GUATEMALA</t>
@@ -73,7 +73,7 @@
     <t>Documento de Identificación</t>
   </si>
   <si>
-    <t>CASADO</t>
+    <t>null</t>
   </si>
   <si>
     <t>AMA DE CASA</t>
@@ -82,7 +82,7 @@
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>2535032720101</t>
+    <t>P-1492 F-32 L-274-G</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a:</t>
@@ -97,22 +97,22 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>HELMA LOPEZ</t>
-  </si>
-  <si>
-    <t>SUEGRA</t>
-  </si>
-  <si>
-    <t>13 SV FINSL LT 37 ST A LA ISLA</t>
-  </si>
-  <si>
-    <t>58714714</t>
+    <t>DAVID DE PAZ</t>
+  </si>
+  <si>
+    <t>ESPOSO</t>
+  </si>
+  <si>
+    <t>L 2 SAN PEDRO AYAMPUC</t>
+  </si>
+  <si>
+    <t>45507521</t>
   </si>
   <si>
     <t>Fecha de la asistencia Médica</t>
   </si>
   <si>
-    <t>Hora: 7:56:23</t>
+    <t>Hora: 5:58:7</t>
   </si>
   <si>
     <t>Area de urgencia: OBTESTRICIA</t>

--- a/reportes/RI10.10.2.253.xlsx
+++ b/reportes/RI10.10.2.253.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,51 +40,57 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>SOCH</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>JUANA</t>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>ANGÉLICA</t>
+  </si>
+  <si>
+    <t>MARLENY</t>
+  </si>
+  <si>
+    <t>2009-34533/201773442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección actual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle o lugar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departamento </t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>36 AVENIDA 27-87 ZONA 5</t>
+  </si>
+  <si>
+    <t>COLONIA SANTA ANA</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>5911 8169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección habitual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>/201769586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección actual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle o lugar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departamento </t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>6 CALLE F.5-33</t>
-  </si>
-  <si>
-    <t>Z.3 EL INCIENSIO</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección habitual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teléfono </t>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -97,13 +103,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1996-07-01</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>SAN MIGUEL USPANTAN/QUICHE</t>
+    <t>1991-02-01</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>SAN MANUEL CHAPARRÓN, JALAPA</t>
   </si>
   <si>
     <t>Femenino</t>
@@ -130,7 +136,7 @@
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>SIN DOC</t>
+    <t>DPI 2112975932104</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -139,7 +145,10 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
-    <t>JACINTO SAJBI</t>
+    <t>MARCO ANTONIO ENRIQUEZ TOSCANO</t>
+  </si>
+  <si>
+    <t>IDEM</t>
   </si>
   <si>
     <t>Nombre del Padre:</t>
@@ -148,10 +157,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>SANTOS SOCH</t>
-  </si>
-  <si>
-    <t>IZABEL HERNANDEZ</t>
+    <t>MARVIN ESTUARDO MARTINEZ ELIAS</t>
+  </si>
+  <si>
+    <t>MARLENY SANDOVAL</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -166,7 +175,7 @@
     <t>ESPOSO</t>
   </si>
   <si>
-    <t>4181-4508</t>
+    <t>5914 6808</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -193,10 +202,13 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>10/11/2017</t>
-  </si>
-  <si>
-    <t>15:20:44</t>
+    <t>20/11/2017</t>
+  </si>
+  <si>
+    <t>15:46:19</t>
+  </si>
+  <si>
+    <t>E.G..O</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1144,17 +1156,17 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1171,91 +1183,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1263,20 +1275,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1284,14 +1296,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1301,14 +1313,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1318,14 +1330,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1335,14 +1347,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1352,18 +1364,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1373,35 +1385,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1411,14 +1423,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1428,39 +1440,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1472,7 +1484,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1513,7 +1525,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1524,7 +1536,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1556,7 +1568,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1567,7 +1579,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1612,7 +1624,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1623,7 +1635,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1656,46 +1668,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1715,7 +1727,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1724,13 +1736,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1745,7 +1757,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/RI10.10.2.253.xlsx
+++ b/reportes/RI10.10.2.253.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>ANGÉLICA</t>
-  </si>
-  <si>
-    <t>MARLENY</t>
-  </si>
-  <si>
-    <t>2009-34533/201773442</t>
+    <t>GARCÌA</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>EUGENIA</t>
+  </si>
+  <si>
+    <t>/201774472</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,16 +70,16 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>36 AVENIDA 27-87 ZONA 5</t>
-  </si>
-  <si>
-    <t>COLONIA SANTA ANA</t>
+    <t>31 AV C 24-74 Z. 7</t>
+  </si>
+  <si>
+    <t>MARIO MARTINEZ</t>
   </si>
   <si>
     <t>GUATEMALA</t>
   </si>
   <si>
-    <t>5911 8169</t>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -88,9 +88,6 @@
     <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -103,13 +100,10 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1991-02-01</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>SAN MANUEL CHAPARRÓN, JALAPA</t>
+    <t>1980-01-23</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>Femenino</t>
@@ -127,7 +121,7 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>Casado</t>
+    <t>Soltero</t>
   </si>
   <si>
     <t>AMA DE CASA</t>
@@ -136,7 +130,7 @@
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>DPI 2112975932104</t>
+    <t>2498430210101</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -145,22 +139,16 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
-    <t>MARCO ANTONIO ENRIQUEZ TOSCANO</t>
-  </si>
-  <si>
-    <t>IDEM</t>
-  </si>
-  <si>
     <t>Nombre del Padre:</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>MARVIN ESTUARDO MARTINEZ ELIAS</t>
-  </si>
-  <si>
-    <t>MARLENY SANDOVAL</t>
+    <t>HERLINDO GARCÌA</t>
+  </si>
+  <si>
+    <t>MARIA VIRGINIA BAUTISTA</t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -172,10 +160,13 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>ESPOSO</t>
-  </si>
-  <si>
-    <t>5914 6808</t>
+    <t>VILM A GARCÌA</t>
+  </si>
+  <si>
+    <t>HERMANA</t>
+  </si>
+  <si>
+    <t>5349-1077</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -202,13 +193,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>20/11/2017</t>
-  </si>
-  <si>
-    <t>15:46:19</t>
-  </si>
-  <si>
-    <t>E.G..O</t>
+    <t>23/11/2017</t>
+  </si>
+  <si>
+    <t>9:3:14</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1189,85 +1177,85 @@
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1275,20 +1263,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1296,14 +1284,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1313,14 +1301,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1330,14 +1318,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1347,14 +1335,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1364,18 +1352,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1385,35 +1373,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1423,14 +1411,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1440,39 +1428,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1484,7 +1472,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1525,7 +1513,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1536,7 +1524,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1568,7 +1556,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1579,7 +1567,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1624,7 +1612,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1635,7 +1623,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1668,46 +1656,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1727,7 +1715,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1736,13 +1724,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1757,7 +1745,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
